--- a/交易信号记录.xlsx
+++ b/交易信号记录.xlsx
@@ -4,41 +4,75 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="9444" yWindow="1944" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
+  <si>
+    <t>止损</t>
+  </si>
+  <si>
+    <t>进场</t>
+  </si>
+  <si>
+    <t>出场</t>
+  </si>
+  <si>
+    <t>亏</t>
+  </si>
+  <si>
+    <t>GBPUSD</t>
+  </si>
+  <si>
+    <t>止盈</t>
+  </si>
+  <si>
+    <t>盈</t>
+  </si>
+  <si>
+    <t>USDCAD</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>CADCHF</t>
+  </si>
+  <si>
+    <t>AUDCAD</t>
+  </si>
+  <si>
+    <t>次数</t>
+  </si>
+  <si>
+    <t>万（日元）</t>
+  </si>
+  <si>
+    <t>tiandao-caiwuziyou</t>
+  </si>
   <si>
     <t>JP225</t>
   </si>
   <si>
-    <t>卖出</t>
-  </si>
-  <si>
-    <t>止损</t>
-  </si>
-  <si>
-    <t>进场</t>
-  </si>
-  <si>
-    <t>出场</t>
-  </si>
-  <si>
-    <t>盈亏</t>
+    <t>澳元可能要见底</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,16 +80,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF353535"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -63,16 +117,272 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -374,68 +684,880 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K3"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="15"/>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43669</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>21655</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>21737</v>
+      </c>
+      <c r="I2" s="11">
+        <v>43671</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="29"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="32"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43690</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.2056</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
-        <v>43669</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="H5" s="2">
+        <v>1.2097</v>
+      </c>
+      <c r="I5" s="11">
+        <v>43690</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="29"/>
+      <c r="B6" s="3">
+        <v>43690</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.2056</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.2263999999999999</v>
+      </c>
+      <c r="I6" s="13">
+        <v>43704</v>
+      </c>
+      <c r="J6" s="9">
+        <v>5</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="32"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="30"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="33"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43703</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.33081</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1.325</v>
+      </c>
+      <c r="I8" s="11">
+        <v>43704</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="29"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="32"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="30"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="33"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43706</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H11" s="2">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="I11" s="11">
+        <v>43707</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="2">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>21655</v>
-      </c>
-      <c r="F3">
-        <v>0.3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>21736</v>
-      </c>
-      <c r="I3" s="1">
-        <v>43671</v>
-      </c>
+      <c r="L11" s="31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="3">
+        <v>43706</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="I12" s="13">
+        <v>43707</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="32"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="30"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="33"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="28">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43710</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.74331999999999998</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.747</v>
+      </c>
+      <c r="I14" s="11">
+        <v>43714</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="32"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="30"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="33"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="28">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43718</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.2371799999999999</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="2">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="I17" s="11">
+        <v>43733</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="3">
+        <v>43720</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="4">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="I18" s="13">
+        <v>43733</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="30"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="33"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="28">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43725</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.90059999999999996</v>
+      </c>
+      <c r="I20" s="11">
+        <v>43734</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="32"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="30"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="33"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="28">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43727</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.90090000000000003</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="2">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="I23" s="11">
+        <v>43739</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="3">
+        <v>43728</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.90039999999999998</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="4">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="I24" s="13">
+        <v>43739</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="32"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="30"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="33"/>
+    </row>
+    <row r="26" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43738</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2">
+        <v>21723</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="2">
+        <v>21402</v>
+      </c>
+      <c r="I26" s="11">
+        <v>43742</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" s="3">
+        <v>43740</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="4">
+        <v>21512</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="4">
+        <v>21420</v>
+      </c>
+      <c r="I27" s="13">
+        <v>43740</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="32"/>
+    </row>
+    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="30"/>
+      <c r="B28" s="23">
+        <v>43741</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="6">
+        <v>21256</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="6">
+        <v>21402</v>
+      </c>
+      <c r="I28" s="24">
+        <v>43742</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="L28" s="33"/>
+    </row>
+    <row r="29" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="28">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="31"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="29"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="32"/>
+    </row>
+    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="30"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="33"/>
+      <c r="N31" s="34">
+        <v>43743</v>
+      </c>
+      <c r="O31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="28">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="31"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="29"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="32"/>
+    </row>
+    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="30"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="33"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J37" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="19">
+        <f>SUM(J2:J35)</f>
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J38" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="19"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J39" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K39" s="19">
+        <f>SUM(K2:K35)</f>
+        <v>5.0500000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J40" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="24">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L14:L16"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A23:A25"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="B2" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>